--- a/resources/LevelProcessed.xlsx
+++ b/resources/LevelProcessed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,16 +33,16 @@
     <t>Experience</t>
   </si>
   <si>
-    <t>Level1</t>
+    <t>Full Automation</t>
   </si>
   <si>
-    <t>Level3</t>
+    <t>Manual</t>
   </si>
   <si>
-    <t>Level9</t>
+    <t>Decision Support</t>
   </si>
   <si>
-    <t>Level5</t>
+    <t>Supervisory Control</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1027,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Level1</c:v>
+                  <c:v>Manual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1196,7 +1196,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Level3</c:v>
+                  <c:v>Decision Support</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1365,7 +1365,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Level5</c:v>
+                  <c:v>Supervisory Control</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1534,7 +1534,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Level9</c:v>
+                  <c:v>Full Automation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1836,12 +1836,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1849,7 +1846,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU"/>
+                  <a:rPr lang="en-AU" sz="1000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t># of Incidents</a:t>
                 </a:r>
               </a:p>
@@ -1869,12 +1870,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1907,12 +1905,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1940,8 +1935,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18651033584305612"/>
-          <c:y val="0.9152542372881356"/>
+          <c:x val="0.23080069930600097"/>
+          <c:y val="0.85740309320839037"/>
           <c:w val="0.55398662758396078"/>
           <c:h val="6.3559766893545089E-2"/>
         </c:manualLayout>
@@ -1959,12 +1954,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3179,10 +3171,10 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3473,9 +3465,9 @@
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3483,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.59069258300943395</v>
       </c>
@@ -3500,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.57719605136708796</v>
       </c>
@@ -3517,7 +3509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.54584761988888797</v>
       </c>
@@ -3534,7 +3526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.58474261620792001</v>
       </c>
@@ -3551,7 +3543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.58237356024390197</v>
       </c>
@@ -3568,7 +3560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.52173913000000005</v>
       </c>
@@ -3585,7 +3577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.54084675597499898</v>
       </c>
@@ -3602,7 +3594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.56054842956043904</v>
       </c>
@@ -3619,7 +3611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.54947702840000001</v>
       </c>
@@ -3636,7 +3628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.58337019112499899</v>
       </c>
@@ -3653,7 +3645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.58236550959154898</v>
       </c>
@@ -3670,7 +3662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.42</v>
       </c>
@@ -3687,7 +3679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.58142334549999997</v>
       </c>
@@ -3704,7 +3696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.58228528693103399</v>
       </c>
@@ -3721,7 +3713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.57285948703092704</v>
       </c>
@@ -3738,7 +3730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.60994626408860697</v>
       </c>
@@ -3755,7 +3747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.56457785070689603</v>
       </c>
@@ -3772,7 +3764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.57148370270370297</v>
       </c>
@@ -3789,7 +3781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.5584720098</v>
       </c>
@@ -3806,7 +3798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.56023751404395505</v>
       </c>
@@ -3823,7 +3815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.59412027351401797</v>
       </c>
@@ -3840,7 +3832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.57613746517924502</v>
       </c>
@@ -3857,7 +3849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.57399640878048697</v>
       </c>
@@ -3874,7 +3866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.57508348541558396</v>
       </c>
@@ -3891,7 +3883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.59526280399999998</v>
       </c>
@@ -3908,7 +3900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.58590821932631498</v>
       </c>
@@ -3925,7 +3917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.60367446363265198</v>
       </c>
@@ -3942,7 +3934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.58202005006185498</v>
       </c>
@@ -3959,7 +3951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.5366677768625</v>
       </c>
@@ -3976,7 +3968,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.58021192242307595</v>
       </c>
@@ -3993,7 +3985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.33333333300000001</v>
       </c>
@@ -4010,7 +4002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.56439238069565101</v>
       </c>
@@ -4027,7 +4019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.59193667775789405</v>
       </c>
@@ -4044,7 +4036,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.58657421801470599</v>
       </c>
@@ -4061,7 +4053,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.59818053888524503</v>
       </c>
@@ -4078,7 +4070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.61027290756603703</v>
       </c>
@@ -4095,7 +4087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.58142334549999997</v>
       </c>
@@ -4122,30 +4114,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>37</v>
       </c>
@@ -4167,7 +4159,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>27</v>
       </c>
@@ -4189,7 +4181,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>39</v>
       </c>
@@ -4211,7 +4203,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>38</v>
       </c>
@@ -4233,7 +4225,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>22</v>
       </c>
@@ -4255,7 +4247,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -4277,7 +4269,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>31</v>
       </c>
@@ -4299,7 +4291,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>31</v>
       </c>
@@ -4321,7 +4313,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45</v>
       </c>
@@ -4343,7 +4335,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>37</v>
       </c>
@@ -4376,7 +4368,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>27</v>
       </c>
@@ -4406,7 +4398,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -4427,7 +4419,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -4448,7 +4440,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30</v>
       </c>
@@ -4469,7 +4461,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>34</v>
       </c>
@@ -4490,7 +4482,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>23</v>
       </c>
@@ -4515,7 +4507,7 @@
         <v>1.4487228364468167E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>46</v>
       </c>
@@ -4536,7 +4528,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>33</v>
       </c>
@@ -4561,7 +4553,7 @@
         <v>0.19443385436523064</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -4582,7 +4574,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>39</v>
       </c>
@@ -4603,7 +4595,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>33</v>
       </c>
@@ -4624,7 +4616,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>39</v>
       </c>
@@ -4645,7 +4637,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>29</v>
       </c>
@@ -4666,7 +4658,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>32</v>
       </c>
@@ -4687,7 +4679,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -4708,7 +4700,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>30</v>
       </c>
@@ -4729,7 +4721,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4752,7 +4744,7 @@
         <v>0.79107891727030122</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>35</v>
       </c>
@@ -4773,7 +4765,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>37</v>
       </c>
@@ -4794,7 +4786,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>17</v>
       </c>
@@ -4815,7 +4807,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -4836,7 +4828,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>38</v>
       </c>
@@ -4857,7 +4849,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -4878,7 +4870,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>25</v>
       </c>
@@ -4911,7 +4903,7 @@
         <v>0.13043478260869565</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>17</v>
       </c>
@@ -4931,7 +4923,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>16</v>
       </c>
@@ -4951,7 +4943,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -4969,7 +4961,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>14</v>
       </c>
